--- a/src/main/resources/template/excel/export/StockLeadDetail.xlsx
+++ b/src/main/resources/template/excel/export/StockLeadDetail.xlsx
@@ -199,7 +199,7 @@
     <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
     <numFmt numFmtId="177" formatCode="yyyy\-m\-d\ h:mm"/>
     <numFmt numFmtId="178" formatCode="0.0000_ "/>
-    <numFmt numFmtId="179" formatCode="yyyy\-mm\-dd\ hh:mm"/>
+    <numFmt numFmtId="180" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -355,14 +355,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -671,7 +671,7 @@
   <dimension ref="A1:EJ101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -690,23 +690,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:140" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
@@ -1012,7 +1012,7 @@
       <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="14" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="5" t="s">

--- a/src/main/resources/template/excel/export/StockLeadDetail.xlsx
+++ b/src/main/resources/template/excel/export/StockLeadDetail.xlsx
@@ -179,15 +179,15 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(K3+0)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(M3+0)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(O3+0)]</t>
+    <t>$[SUMPRODUCT(K3:K3:K3+0)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(M3:M3:M3+0)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(O3:O3:O3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -199,7 +199,7 @@
     <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
     <numFmt numFmtId="177" formatCode="yyyy\-m\-d\ h:mm"/>
     <numFmt numFmtId="178" formatCode="0.0000_ "/>
-    <numFmt numFmtId="180" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="179" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -355,14 +355,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -671,7 +671,7 @@
   <dimension ref="A1:EJ101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -690,23 +690,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:140" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
@@ -1012,7 +1012,7 @@
       <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="5" t="s">
